--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>생산 접수</t>
+          <t>생산중</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>생산 접수</t>
+          <t>생산중</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -937,7 +937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,6 +1011,358 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:09:14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>번호[RMA2511-020] 예정일 변경 (2025-11-30 -&gt; 2025-11-30)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:09:18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>번호[RMA2511-020] 예정일 변경 (2025-11-30 -&gt; 2025-11-20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:09:35</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>번호[RMA2511-020] 예정일 변경 (2025-11-20 -&gt; 2025-11-22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:09:40</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>번호[RMA2511-020] 예정일 변경 (2025-11-22 -&gt; 2025-11-18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:09:59</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>번호[RMA2511-020] 예정일 변경 (2025-11-18 -&gt; 2025-11-13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:11:40</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일(2025-11-24) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:11:46</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-24 -&gt; 2025-11-18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:11:49</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-18 -&gt; 2025-11-26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:11:52</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-26 -&gt; 2025-11-21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:11:56</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>번호[RMA2511-020] 예정일 변경 (2025-11-13 -&gt; 2025-11-07)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:12:03</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:12:08</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:12:09</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:12:14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:15:29</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-28 -&gt; 2025-12-28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-11-24 12:15:33</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>번호[KR251121-01] 예정일 변경 (2025-12-28 -&gt; 2025-11-28)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding_practice\251123_ProductionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102859F3-2945-4473-9B9A-819535A66386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7271008F-BE22-428E-8077-36108951B5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="138">
   <si>
     <t>번호</t>
   </si>
@@ -435,6 +435,23 @@
   <si>
     <t>업체명</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\sue\Desktop\PDF\출고요청서_(주)에스피지_KR251121-01.pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMATEST-001</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>C:\Users\sue\Desktop\PDF\RMA요청서_RMATEST-001_TEST.pdf</t>
   </si>
 </sst>
 </file>
@@ -811,10 +828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,7 +851,7 @@
     <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,8 +894,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -900,8 +920,11 @@
       <c r="N2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -924,7 +947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -947,7 +970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -970,7 +993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -993,7 +1016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1016,7 +1039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1039,7 +1062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -1062,7 +1085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1085,7 +1108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -1108,7 +1131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -1131,7 +1154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -1177,7 +1200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -1200,7 +1223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -1223,7 +1246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -1246,7 +1269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1269,7 +1292,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1292,7 +1315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -1315,7 +1338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -1338,7 +1361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -1361,7 +1384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -1384,7 +1407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -1413,7 +1436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -1442,7 +1465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -1471,7 +1494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -1498,6 +1521,35 @@
       </c>
       <c r="N27" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45985</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding_practice\251123_ProductionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7271008F-BE22-428E-8077-36108951B5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CD2AFE-6FDC-4955-A310-31336AF2FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>번호</t>
   </si>
@@ -217,220 +217,6 @@
   </si>
   <si>
     <t>번호[KR251121-01] 예정일 변경 (2025-12-21 -&gt; 2025-11-21)</t>
-  </si>
-  <si>
-    <t>KR251103-01</t>
-  </si>
-  <si>
-    <t>주식회사 아이티브에이아이</t>
-  </si>
-  <si>
-    <t>COX640AV</t>
-  </si>
-  <si>
-    <t>25mm</t>
-  </si>
-  <si>
-    <t>생산 접수</t>
-  </si>
-  <si>
-    <t>KR251121-01</t>
-  </si>
-  <si>
-    <t>(주)에스피지</t>
-  </si>
-  <si>
-    <t>CG600IP</t>
-  </si>
-  <si>
-    <t>M 75mm-motor</t>
-  </si>
-  <si>
-    <t>Window 85x4t</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>KR251030-02</t>
-  </si>
-  <si>
-    <t>쿠도커뮤니케이션(주)</t>
-  </si>
-  <si>
-    <t>D-30</t>
-  </si>
-  <si>
-    <t>A 4.0_Normal</t>
-  </si>
-  <si>
-    <t>KR251030-01</t>
-  </si>
-  <si>
-    <t>한전KDN</t>
-  </si>
-  <si>
-    <t>V61</t>
-  </si>
-  <si>
-    <t>Z 30-150mm-motor</t>
-  </si>
-  <si>
-    <t>KR251118-01</t>
-  </si>
-  <si>
-    <t>새만금</t>
-  </si>
-  <si>
-    <t>피에조, 줌모듈, 렌즈 사급</t>
-  </si>
-  <si>
-    <t>EX251118-01</t>
-  </si>
-  <si>
-    <t>Focus 2000 Infrared Ltd</t>
-  </si>
-  <si>
-    <t>DH5140-SHB</t>
-  </si>
-  <si>
-    <t>Window 60x4t</t>
-  </si>
-  <si>
-    <t>EX251118-02</t>
-  </si>
-  <si>
-    <t>CG640</t>
-  </si>
-  <si>
-    <t>G 8mm_Medium</t>
-  </si>
-  <si>
-    <t>EX250422-03</t>
-  </si>
-  <si>
-    <t>Pergam Kazakhstan</t>
-  </si>
-  <si>
-    <t>CG640IP</t>
-  </si>
-  <si>
-    <t>M 50mm-motor_Extreme</t>
-  </si>
-  <si>
-    <t>EX250718-01</t>
-  </si>
-  <si>
-    <t>OpteamX Ltd.</t>
-  </si>
-  <si>
-    <t>CZ640</t>
-  </si>
-  <si>
-    <t>G 75mm_Normal</t>
-  </si>
-  <si>
-    <t>EX250121-02</t>
-  </si>
-  <si>
-    <t>M 30mm-motor</t>
-  </si>
-  <si>
-    <t>M 45mm-motor</t>
-  </si>
-  <si>
-    <t>M 65mm-motor</t>
-  </si>
-  <si>
-    <t>EX251104-01</t>
-  </si>
-  <si>
-    <t>VENTIONEX INNOVATION SDN BHD</t>
-  </si>
-  <si>
-    <t>M 50mm-motor_High</t>
-  </si>
-  <si>
-    <t>EX251106-01</t>
-  </si>
-  <si>
-    <t>Global Proof S.r.l.</t>
-  </si>
-  <si>
-    <t>G 8mm_Normal</t>
-  </si>
-  <si>
-    <t>EX251110-01</t>
-  </si>
-  <si>
-    <t>M 8mm-motor_High</t>
-  </si>
-  <si>
-    <t>EX251113-01</t>
-  </si>
-  <si>
-    <t>G 4.8mm_Medium</t>
-  </si>
-  <si>
-    <t>EX251113-02</t>
-  </si>
-  <si>
-    <t>DH-5140SHB</t>
-  </si>
-  <si>
-    <t>EX251121-01</t>
-  </si>
-  <si>
-    <t>CG320</t>
-  </si>
-  <si>
-    <t>RMA2511-006</t>
-  </si>
-  <si>
-    <t>Ibertronix Infrared &amp; Vision S.L.</t>
-  </si>
-  <si>
-    <t>no thermal image</t>
-  </si>
-  <si>
-    <t>H60000301F5F</t>
-  </si>
-  <si>
-    <t>RMA2511-001</t>
-  </si>
-  <si>
-    <t>will not calibrate</t>
-  </si>
-  <si>
-    <t>N60000500549</t>
-  </si>
-  <si>
-    <t>RMA2511-005</t>
-  </si>
-  <si>
-    <t>Global proof S.r.l.</t>
-  </si>
-  <si>
-    <t>CG320IP</t>
-  </si>
-  <si>
-    <t>N60001301CCE</t>
-  </si>
-  <si>
-    <t>RMA2510-08</t>
-  </si>
-  <si>
-    <t>트리비전_본사</t>
-  </si>
-  <si>
-    <t>온도 평탄화? 셔터 걸림? 센서?</t>
-  </si>
-  <si>
-    <t>11월 셋째주 김경철 부장 픽업 예정192.168.10.17
-pw: cctv2019!</t>
-  </si>
-  <si>
-    <t>확인 불가</t>
   </si>
   <si>
     <t>업체명</t>
@@ -439,19 +225,6 @@
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\sue\Desktop\PDF\출고요청서_(주)에스피지_KR251121-01.pdf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMATEST-001</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>C:\Users\sue\Desktop\PDF\RMA요청서_RMATEST-001_TEST.pdf</t>
   </si>
 </sst>
 </file>
@@ -516,14 +289,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,10 +597,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N28" sqref="A2:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -856,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -895,661 +664,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>45985</v>
-      </c>
-      <c r="N23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="2">
-        <v>45974</v>
-      </c>
-      <c r="K24" t="s">
-        <v>119</v>
-      </c>
-      <c r="N24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="2">
-        <v>45964</v>
-      </c>
-      <c r="K25" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="2">
-        <v>45974</v>
-      </c>
-      <c r="K26" t="s">
-        <v>126</v>
-      </c>
-      <c r="N26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="2">
-        <v>45958</v>
-      </c>
-      <c r="K27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>45985</v>
-      </c>
-      <c r="K28" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -802,27 +802,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>생산중</t>
+          <t>완료</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1247,7 +1235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2091,6 +2079,28 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:17:29</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>생산 완료</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>번호[EX251101-002] 출고일(2025-11-30) 처리 완료.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,9 +805,21 @@
           <t>2025-11-30</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>완료</t>
@@ -1219,6 +1231,86 @@
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EX251104-001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Focus2k </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CG1024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>M 12mm-motor</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>생산중</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1235,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2101,6 +2193,28 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:21:31</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>번호[EX251104-001] 예정일(2025-11-28) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -875,11 +875,7 @@
           <t>2025-11-01</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>-</t>
@@ -912,7 +908,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>렌즈 없음</t>
+          <t>달력에서 이동</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,6 +2211,336 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:13</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:17</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:17</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:43</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:44</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:58:45</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-11-24 20:06:23</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 예정일(2025-12-05) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-11-24 20:06:29</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 예정일 변경 (2025-12-05 -&gt; 2025-12-04)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-11-24 20:06:41</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>번호[EX251101-003] 예정일(2025-12-12) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-11-24 20:10:32</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Hold 설정</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 상태 변경 (생산중 -&gt; Hold)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-11-24 20:10:38</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>대기 설정</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-11-24 20:10:40</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>번호[EX251101-003] 예정일(2025-12-12) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-11-24 20:10:58</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>대기 설정</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -875,7 +875,11 @@
           <t>2025-11-01</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>-</t>
@@ -951,11 +955,7 @@
           <t>2025-11-03</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1031,11 +1031,7 @@
           <t>2025-11-03</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>-</t>
@@ -1111,11 +1107,7 @@
           <t>2025-11-03</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>-</t>
@@ -1323,7 +1315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2541,6 +2533,138 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:03:43</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:03:46</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-29 -&gt; 2025-11-28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:09:42</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>생산 재개</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] Hold -&gt; 생산중 변경</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:09:54</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>생산 완료</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 출고일(2025-11-24) 처리 완료.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:13:01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>생산 재개</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] Hold -&gt; 생산중 변경, 예정일(2025-11-30) 설정</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:13:08</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Hold 설정</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 상태 변경 (생산중 -&gt; Hold)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -875,11 +875,7 @@
           <t>2025-11-01</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>-</t>
@@ -955,7 +951,11 @@
           <t>2025-11-03</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1031,7 +1031,11 @@
           <t>2025-11-03</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>-</t>
@@ -1107,7 +1111,11 @@
           <t>2025-11-03</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>-</t>
@@ -1315,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,6 +2673,94 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:22:34</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 예정일(2025-12-05) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:22:45</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Hold 설정</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 상태 변경 (생산중 -&gt; Hold)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:22:49</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>번호[EX251101-003] 예정일(2025-12-05) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-11-24 21:22:55</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>jidda</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>대기 설정</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -1596,7 +1596,11 @@
           <t>2025-11-27</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>-</t>
@@ -1644,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3299,6 +3303,138 @@
       <c r="D75" t="inlineStr">
         <is>
           <t>번호[EX251127-001] 상태 변경 (생산 접수 -&gt; 중지)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-11-27 09:45:43</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-11-26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-11-27 09:45:45</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-26 -&gt; 2025-11-25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-11-27 09:45:47</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-11-26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-11-27 09:45:48</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-26 -&gt; 2025-11-25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-11-27 09:45:53</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-12-23)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-11-27 09:45:55</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>일정 변경</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>번호[EX251101-001] 예정일 변경 (2025-12-23 -&gt; 2025-11-25)</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3375,6 +3511,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EX251104-001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-27 09:45:07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dsafsdakhjf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -3449,7 +3449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-27 08:47:40</t>
+          <t>2025-11-27 09:45:07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3506,33 +3506,6 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>메모 테스트</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EX251104-001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-11-27 09:45:07</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>dsafsdakhjf</t>
         </is>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -3449,7 +3449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3511,6 +3511,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EX251101-001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-27 10:08:48</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>메모 추가</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -3450,7 +3450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3549,6 +3549,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EX251125-001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-27 12:00:10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>메모</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -3565,7 +3597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3926,6 +3958,33 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-27 12:00:10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>추가</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EX251125-001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>메모</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -959,7 +959,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Hold</t>
+          <t>생산중</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Hold</t>
+          <t>생산중</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Hold</t>
+          <t>생산중</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1649,7 +1649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3436,6 +3436,28 @@
       <c r="D81" t="inlineStr">
         <is>
           <t>번호[EX251101-001] 예정일 변경 (2025-12-23 -&gt; 2025-11-25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-11-27 12:41:58</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>생산 재개</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>번호[EX251103-001] 중지 -&gt; 생산중 변경, 예정일(2025-11-30) 설정</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3572,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3604,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -3472,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,12 +3547,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EX251101-001</t>
+          <t>EX251125-001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-11-27 11:42:23</t>
+          <t>2025-11-27 12:00:10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3567,42 +3567,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>신규메모</t>
+          <t>메모</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EX251125-001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-11-27 12:00:10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>메모</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3619,7 +3587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4007,6 +3975,33 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-11-27 13:25:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>삭제</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EX251101-001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>신규메모</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -1298,7 +1298,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>완료</t>
@@ -1676,29 +1680,25 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>S6000150001, S6000150002, S6000150003, S6000150004, S6000150005, S6000150006, S6000150007, S6000150008, S6000150009, S600015000A, S600015000B, S600015000C, S600015000D, S600015000E, S600015000F, S6000150010, S6000150011, S6000150012, S6000150013, S6000150014</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+          <t>BL, SH, Viewnyx</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>완료</t>
@@ -1726,7 +1726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3601,6 +3601,94 @@
       <c r="D85" t="inlineStr">
         <is>
           <t>번호[EX251104-001] 출고일(2025-11-27) 처리 완료.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-11-28 08:37:54</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>번호[EX251127-002] 예정일(2025-11-28) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-11-28 08:38:15</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>생산 완료</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>번호[EX251127-002] 출고일(2025-11-28) 처리 완료.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-11-28 08:50:07</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>번호[EX251127-002] 예정일(2025-11-28) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-11-28 08:50:43</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>생산 완료</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>번호[EX251127-002] 출고일(2025-11-28) 처리 완료.</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4212,19 +4300,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S60001500001</t>
+          <t>S6000150001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4242,19 +4326,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S60001500002</t>
+          <t>S6000150002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4272,19 +4352,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>S60001500003</t>
+          <t>S6000150003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4302,19 +4378,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S60001500004</t>
+          <t>S6000150004</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4332,19 +4404,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>S60001500005</t>
+          <t>S6000150005</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4362,19 +4430,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>S60001500006</t>
+          <t>S6000150006</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Viewnyx</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4392,19 +4456,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S60001500007</t>
+          <t>S6000150007</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4422,19 +4482,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>S60001500008</t>
+          <t>S6000150008</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4452,19 +4508,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>S60001500009</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S6000150009</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4482,19 +4530,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>S6000150000A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S600015000A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4512,19 +4552,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S6000150000B</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S600015000B</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4542,19 +4574,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S6000150000C</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S600015000C</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4572,19 +4596,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S6000150000D</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S600015000D</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4602,19 +4618,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S6000150000E</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S600015000E</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4632,19 +4640,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S6000150000F</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S600015000F</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4662,19 +4662,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S60001500010</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S6000150010</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4692,19 +4684,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>S60001500011</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S6000150011</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4722,19 +4706,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S60001500012</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S6000150012</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4752,19 +4728,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S60001500013</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>S6000150013</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4782,63 +4750,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>S60001500014</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>EX251104-001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CG1024</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>s6001500123</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>EX251104-001</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CG1024</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>s6001500124</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+          <t>S6000150014</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -1690,7 +1690,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>S6000150001, S6000150002, S6000150003, S6000150004, S6000150005, S6000150006, S6000150007, S6000150008, S6000150009, S600015000A, S600015000B, S600015000C, S600015000D, S600015000E, S600015000F, S6000150010, S6000150011, S6000150012, S6000150013, S6000150014</t>
+          <t>S6000150200, S6000150002, S6000150003, S6000150004, S6000150005, S6000150006, S6000150007, S6000150008, S6000150009, S600015000A, S600015000B, S600015000C, S600015000D, S600015000E, S600015000F, S6000150010, S6000150011, S6000150012, S6000150013, S6000150014</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1698,7 +1698,11 @@
           <t>BL, SH, Viewnyx</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>완료</t>
@@ -4300,7 +4304,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S6000150001</t>
+          <t>S6000150200</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -4308,7 +4312,11 @@
           <t>SH</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4334,7 +4342,11 @@
           <t>BL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4360,7 +4372,11 @@
           <t>SH</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4386,7 +4402,11 @@
           <t>BL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4412,7 +4432,11 @@
           <t>SH</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4438,7 +4462,11 @@
           <t>Viewnyx</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4464,7 +4492,11 @@
           <t>SH</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4490,7 +4522,11 @@
           <t>SH</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4511,8 +4547,16 @@
           <t>S6000150009</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4533,8 +4577,16 @@
           <t>S600015000A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4555,8 +4607,16 @@
           <t>S600015000B</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4577,8 +4637,16 @@
           <t>S600015000C</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4599,8 +4667,16 @@
           <t>S600015000D</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4621,8 +4697,16 @@
           <t>S600015000E</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4643,8 +4727,16 @@
           <t>S600015000F</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4665,8 +4757,16 @@
           <t>S6000150010</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4687,8 +4787,16 @@
           <t>S6000150011</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4709,8 +4817,16 @@
           <t>S6000150012</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4731,8 +4847,16 @@
           <t>S6000150013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4753,8 +4877,16 @@
           <t>S6000150014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,86 +1634,6 @@
         </is>
       </c>
       <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>하수민</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>A 25mm</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-11-27</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>S6000150200, S6000150002, S6000150003, S6000150004, S6000150005, S6000150006, S6000150007, S6000150008, S6000150009, S600015000A, S600015000B, S600015000C, S600015000D, S600015000E, S600015000F, S6000150010, S6000150011, S6000150012, S6000150013, S6000150014</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>BL, SH, Viewnyx</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>C:\Users\sue\Desktop\RMA요청서_RMA2510-02_Global Proof S.r.l..pdf</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1730,7 +1650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1763,7 +1683,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-24 11:41:36</t>
+          <t>2025-11-24 12:11:49</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1773,19 +1693,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일(2025-11-30) 등록 및 생산시작</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-18 -&gt; 2025-11-26)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-11-24 11:41:59</t>
+          <t>2025-11-24 12:11:52</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1795,19 +1715,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일(2025-11-30) 등록 및 생산시작</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-26 -&gt; 2025-11-21)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-11-24 12:09:14</t>
+          <t>2025-11-24 12:11:56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1822,14 +1742,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일 변경 (2025-11-30 -&gt; 2025-11-30)</t>
+          <t>번호[RMA2511-020] 예정일 변경 (2025-11-13 -&gt; 2025-11-07)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-11-24 12:09:18</t>
+          <t>2025-11-24 12:12:03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1844,14 +1764,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일 변경 (2025-11-30 -&gt; 2025-11-20)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-11-24 12:09:35</t>
+          <t>2025-11-24 12:12:08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1866,14 +1786,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일 변경 (2025-11-20 -&gt; 2025-11-22)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-11-24 12:09:40</t>
+          <t>2025-11-24 12:12:09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1888,14 +1808,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일 변경 (2025-11-22 -&gt; 2025-11-18)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-11-24 12:09:59</t>
+          <t>2025-11-24 12:12:14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1910,14 +1830,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일 변경 (2025-11-18 -&gt; 2025-11-13)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-11-24 12:11:40</t>
+          <t>2025-11-24 12:15:29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1927,19 +1847,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일(2025-11-24) 등록 및 생산시작</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-28 -&gt; 2025-12-28)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-11-24 12:11:46</t>
+          <t>2025-11-24 12:15:33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1954,14 +1874,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-24 -&gt; 2025-11-18)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-12-28 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-11-24 12:11:49</t>
+          <t>2025-11-24 12:26:02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1976,14 +1896,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-18 -&gt; 2025-11-26)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-28 -&gt; 2025-11-21)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-11-24 12:11:52</t>
+          <t>2025-11-24 12:26:13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1998,14 +1918,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-26 -&gt; 2025-11-21)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-11-24 12:11:56</t>
+          <t>2025-11-24 13:03:41</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2020,14 +1940,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>번호[RMA2511-020] 예정일 변경 (2025-11-13 -&gt; 2025-11-07)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-28 -&gt; 2025-11-21)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-11-24 12:12:03</t>
+          <t>2025-11-24 13:03:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2042,14 +1962,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-12-21)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-11-24 12:12:08</t>
+          <t>2025-11-24 13:03:48</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2064,85 +1984,85 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
+          <t>번호[KR251121-01] 예정일 변경 (2025-12-21 -&gt; 2025-11-21)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-11-24 12:12:09</t>
+          <t>2025-11-24 18:49:06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-21)</t>
+          <t>번호[EX251101-002] 예정일(2025-11-30) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-11-24 12:12:14</t>
+          <t>2025-11-24 18:49:21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>대기 설정</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-28)</t>
+          <t>번호[EX251101-003] 상태 변경 (생산 접수 -&gt; 대기) / 사유: 렌즈 없음</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-11-24 12:15:29</t>
+          <t>2025-11-24 18:49:27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>Hold 설정</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-28 -&gt; 2025-12-28)</t>
+          <t>번호[EX251103-001] 상태 변경 (생산 접수 -&gt; Hold)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-11-24 12:15:33</t>
+          <t>2025-11-24 18:49:38</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2152,19 +2072,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-12-28 -&gt; 2025-11-28)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-11-30 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-11-24 12:26:02</t>
+          <t>2025-11-24 18:52:36</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2174,19 +2094,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-28 -&gt; 2025-11-21)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-02)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-11-24 12:26:13</t>
+          <t>2025-11-24 18:52:38</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2196,19 +2116,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-11-28)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-02 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-11-24 13:03:41</t>
+          <t>2025-11-24 18:52:55</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2218,19 +2138,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-28 -&gt; 2025-11-21)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-05)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-11-24 13:03:45</t>
+          <t>2025-11-24 18:52:59</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2240,19 +2160,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-11-21 -&gt; 2025-12-21)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-05 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-11-24 13:03:48</t>
+          <t>2025-11-24 18:53:04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sue</t>
+          <t>jidda</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2262,14 +2182,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>번호[KR251121-01] 예정일 변경 (2025-12-21 -&gt; 2025-11-21)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-29)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-11-24 18:49:06</t>
+          <t>2025-11-24 18:53:09</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2279,19 +2199,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일(2025-11-30) 등록 및 생산시작</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-29 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-11-24 18:49:21</t>
+          <t>2025-11-24 18:53:10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2301,19 +2221,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>대기 설정</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>번호[EX251101-003] 상태 변경 (생산 접수 -&gt; 대기) / 사유: 렌즈 없음</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-11-24 18:49:27</t>
+          <t>2025-11-24 18:53:11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2323,19 +2243,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hold 설정</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] 상태 변경 (생산 접수 -&gt; Hold)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-11-24 18:49:38</t>
+          <t>2025-11-24 18:53:13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2350,14 +2270,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-11-30 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-11-24 18:52:36</t>
+          <t>2025-11-24 18:53:14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2372,14 +2292,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-02)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-11-24 18:52:38</t>
+          <t>2025-11-24 19:17:29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2389,19 +2309,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>생산 완료</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-02 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-002] 출고일(2025-11-30) 처리 완료.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-11-24 18:52:55</t>
+          <t>2025-11-24 19:21:31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2411,19 +2331,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-05)</t>
+          <t>번호[EX251104-001] 예정일(2025-11-28) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-11-24 18:52:59</t>
+          <t>2025-11-24 19:58:13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2438,14 +2358,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-05 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-11-24 18:53:04</t>
+          <t>2025-11-24 19:58:14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2460,14 +2380,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-29)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-11-24 18:53:09</t>
+          <t>2025-11-24 19:58:17</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2482,14 +2402,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-29 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-11-24 18:53:10</t>
+          <t>2025-11-24 19:58:17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2511,7 +2431,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-11-24 18:53:11</t>
+          <t>2025-11-24 19:58:43</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2533,7 +2453,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-11-24 18:53:13</t>
+          <t>2025-11-24 19:58:43</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2555,7 +2475,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-11-24 18:53:14</t>
+          <t>2025-11-24 19:58:44</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2570,14 +2490,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-11-24 19:17:29</t>
+          <t>2025-11-24 19:58:45</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2587,19 +2507,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>생산 완료</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 출고일(2025-11-30) 처리 완료.</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-11-24 19:21:31</t>
+          <t>2025-11-24 20:06:23</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2614,14 +2534,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일(2025-11-28) 등록 및 생산시작</t>
+          <t>번호[EX251103-001] 예정일(2025-12-05) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:13</t>
+          <t>2025-11-24 20:06:29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2636,14 +2556,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+          <t>번호[EX251103-001] 예정일 변경 (2025-12-05 -&gt; 2025-12-04)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:14</t>
+          <t>2025-11-24 20:06:41</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2653,19 +2573,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-003] 예정일(2025-12-12) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:17</t>
+          <t>2025-11-24 20:10:32</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2675,19 +2595,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>Hold 설정</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+          <t>번호[EX251103-001] 상태 변경 (생산중 -&gt; Hold)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:17</t>
+          <t>2025-11-24 20:10:38</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2697,19 +2617,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>대기 설정</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:43</t>
+          <t>2025-11-24 20:10:40</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2719,19 +2639,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-003] 예정일(2025-12-12) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:43</t>
+          <t>2025-11-24 20:10:58</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2741,19 +2661,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>대기 설정</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>번호[EX251101-002] 예정일 변경 (2025-12-01 -&gt; 2025-12-01)</t>
+          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:44</t>
+          <t>2025-11-24 21:03:43</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2768,14 +2688,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-28)</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-29)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-11-24 19:58:45</t>
+          <t>2025-11-24 21:03:46</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2790,14 +2710,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-28)</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-29 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-11-24 20:06:23</t>
+          <t>2025-11-24 21:09:42</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2807,19 +2727,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>생산 재개</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] 예정일(2025-12-05) 등록 및 생산시작</t>
+          <t>번호[EX251103-001] Hold -&gt; 생산중 변경</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-11-24 20:06:29</t>
+          <t>2025-11-24 21:09:54</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2829,19 +2749,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>생산 완료</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] 예정일 변경 (2025-12-05 -&gt; 2025-12-04)</t>
+          <t>번호[EX251103-001] 출고일(2025-11-24) 처리 완료.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-11-24 20:06:41</t>
+          <t>2025-11-24 21:13:01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2851,19 +2771,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>생산 재개</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>번호[EX251101-003] 예정일(2025-12-12) 등록 및 생산시작</t>
+          <t>번호[EX251103-001] Hold -&gt; 생산중 변경, 예정일(2025-11-30) 설정</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-11-24 20:10:32</t>
+          <t>2025-11-24 21:13:08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2885,7 +2805,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-11-24 20:10:38</t>
+          <t>2025-11-24 21:22:34</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2895,19 +2815,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>대기 설정</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
+          <t>번호[EX251103-001] 예정일(2025-12-05) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-11-24 20:10:40</t>
+          <t>2025-11-24 21:22:45</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2917,19 +2837,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>Hold 설정</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>번호[EX251101-003] 예정일(2025-12-12) 등록 및 생산시작</t>
+          <t>번호[EX251103-001] 상태 변경 (생산중 -&gt; Hold)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-11-24 20:10:58</t>
+          <t>2025-11-24 21:22:49</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2939,19 +2859,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>대기 설정</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
+          <t>번호[EX251101-003] 예정일(2025-12-05) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-11-24 21:03:43</t>
+          <t>2025-11-24 21:22:55</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2961,217 +2881,217 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>대기 설정</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-29)</t>
+          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-11-24 21:03:46</t>
+          <t>2025-11-25 14:17:30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>중지 설정</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-11-29 -&gt; 2025-11-28)</t>
+          <t>번호[EX251103-002] 상태 변경 (생산 접수 -&gt; 중지)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-24 21:09:42</t>
+          <t>2025-11-25 14:51:03</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>생산 재개</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] Hold -&gt; 생산중 변경</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-27)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-11-24 21:09:54</t>
+          <t>2025-11-25 14:51:05</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>생산 완료</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] 출고일(2025-11-24) 처리 완료.</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-27 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-11-24 21:13:01</t>
+          <t>2025-11-25 14:58:39</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>생산 재개</t>
+          <t>대기 설정</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] Hold -&gt; 생산중 변경, 예정일(2025-11-30) 설정</t>
+          <t>번호[EX251101-001] 상태 변경 (생산 접수 -&gt; 대기) / 사유: 칸반 보드 이동</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-11-24 21:13:08</t>
+          <t>2025-11-25 14:58:45</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Hold 설정</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] 상태 변경 (생산중 -&gt; Hold)</t>
+          <t>번호[EX251101-001] 예정일(2025-11-25) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-11-24 21:22:34</t>
+          <t>2025-11-25 14:58:47</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>대기 설정</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] 예정일(2025-12-05) 등록 및 생산시작</t>
+          <t>번호[EX251101-001] 상태 변경 (생산중 -&gt; 대기) / 사유: 칸반 보드 이동</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-11-24 21:22:45</t>
+          <t>2025-11-25 14:58:48</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hold 설정</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>번호[EX251103-001] 상태 변경 (생산중 -&gt; Hold)</t>
+          <t>번호[EX251101-001] 예정일(2025-11-25) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-11-24 21:22:49</t>
+          <t>2025-11-25 16:09:04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>번호[EX251101-003] 예정일(2025-12-05) 등록 및 생산시작</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-12-26)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-11-24 21:22:55</t>
+          <t>2025-11-25 16:09:07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>jidda</t>
+          <t>sue</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>대기 설정</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>번호[EX251101-003] 상태 변경 (생산중 -&gt; 대기) / 사유: 달력에서 이동</t>
+          <t>번호[EX251104-001] 예정일 변경 (2025-12-26 -&gt; 2025-11-28)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-11-25 14:17:30</t>
+          <t>2025-11-27 09:05:01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3186,14 +3106,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>번호[EX251103-002] 상태 변경 (생산 접수 -&gt; 중지)</t>
+          <t>번호[EX251127-001] 상태 변경 (생산 접수 -&gt; 중지)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-11-25 14:51:03</t>
+          <t>2025-11-27 09:45:43</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3208,14 +3128,14 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-11-27)</t>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-11-26)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-11-25 14:51:05</t>
+          <t>2025-11-27 09:45:45</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3230,14 +3150,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-11-27 -&gt; 2025-11-28)</t>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-26 -&gt; 2025-11-25)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-11-25 14:58:39</t>
+          <t>2025-11-27 09:45:47</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3247,19 +3167,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>대기 설정</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 상태 변경 (생산 접수 -&gt; 대기) / 사유: 칸반 보드 이동</t>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-11-26)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-11-25 14:58:45</t>
+          <t>2025-11-27 09:45:48</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3269,19 +3189,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일(2025-11-25) 등록 및 생산시작</t>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-26 -&gt; 2025-11-25)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-11-25 14:58:47</t>
+          <t>2025-11-27 09:45:53</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3291,19 +3211,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>대기 설정</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 상태 변경 (생산중 -&gt; 대기) / 사유: 칸반 보드 이동</t>
+          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-12-23)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-11-25 14:58:48</t>
+          <t>2025-11-27 09:45:55</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3313,19 +3233,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>일정 수립</t>
+          <t>일정 변경</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일(2025-11-25) 등록 및 생산시작</t>
+          <t>번호[EX251101-001] 예정일 변경 (2025-12-23 -&gt; 2025-11-25)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-11-25 16:09:04</t>
+          <t>2025-11-27 12:41:58</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3335,19 +3255,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>생산 재개</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-11-28 -&gt; 2025-12-26)</t>
+          <t>번호[EX251103-001] 중지 -&gt; 생산중 변경, 예정일(2025-11-30) 설정</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-11-25 16:09:07</t>
+          <t>2025-11-27 14:50:22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3357,19 +3277,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>번호[EX251104-001] 예정일 변경 (2025-12-26 -&gt; 2025-11-28)</t>
+          <t>번호[EX251127-002] 예정일(2025-11-27) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-11-27 09:05:01</t>
+          <t>2025-11-27 14:57:28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3379,19 +3299,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>중지 설정</t>
+          <t>생산 완료</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>번호[EX251127-001] 상태 변경 (생산 접수 -&gt; 중지)</t>
+          <t>번호[EX251127-002] 출고일(2025-11-27) 처리 완료.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-11-27 09:45:43</t>
+          <t>2025-11-27 15:02:08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3401,19 +3321,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>생산 완료</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-11-26)</t>
+          <t>번호[EX251104-001] 출고일(2025-11-27) 처리 완료.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-11-27 09:45:45</t>
+          <t>2025-11-28 08:37:54</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3423,19 +3343,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일 변경 (2025-11-26 -&gt; 2025-11-25)</t>
+          <t>번호[EX251127-002] 예정일(2025-11-28) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-11-27 09:45:47</t>
+          <t>2025-11-28 08:38:15</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3445,19 +3365,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>생산 완료</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-11-26)</t>
+          <t>번호[EX251127-002] 출고일(2025-11-28) 처리 완료.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-11-27 09:45:48</t>
+          <t>2025-11-28 08:50:07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3467,19 +3387,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>일정 수립</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일 변경 (2025-11-26 -&gt; 2025-11-25)</t>
+          <t>번호[EX251127-002] 예정일(2025-11-28) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-11-27 09:45:53</t>
+          <t>2025-11-28 08:50:43</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3489,19 +3409,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>생산 완료</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일 변경 (2025-11-25 -&gt; 2025-12-23)</t>
+          <t>번호[EX251127-002] 출고일(2025-11-28) 처리 완료.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-11-27 09:45:55</t>
+          <t>2025-11-28 09:19:56</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3511,188 +3431,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>일정 변경</t>
+          <t>강제 삭제</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>번호[EX251101-001] 예정일 변경 (2025-12-23 -&gt; 2025-11-25)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2025-11-27 12:41:58</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>생산 재개</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>번호[EX251103-001] 중지 -&gt; 생산중 변경, 예정일(2025-11-30) 설정</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2025-11-27 14:50:22</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>일정 수립</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>번호[EX251127-002] 예정일(2025-11-27) 등록 및 생산시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2025-11-27 14:57:28</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>생산 완료</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>번호[EX251127-002] 출고일(2025-11-27) 처리 완료.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2025-11-27 15:02:08</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>생산 완료</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>번호[EX251104-001] 출고일(2025-11-27) 처리 완료.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2025-11-28 08:37:54</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>일정 수립</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>번호[EX251127-002] 예정일(2025-11-28) 등록 및 생산시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2025-11-28 08:38:15</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>생산 완료</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>번호[EX251127-002] 출고일(2025-11-28) 처리 완료.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2025-11-28 08:50:07</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>일정 수립</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>번호[EX251127-002] 예정일(2025-11-28) 등록 및 생산시작</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2025-11-28 08:50:43</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>sue</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>생산 완료</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>번호[EX251127-002] 출고일(2025-11-28) 처리 완료.</t>
+          <t>[Dev] 번호[EX251127-002] 및 연관 데이터 영구 삭제</t>
         </is>
       </c>
     </row>
@@ -4248,7 +3992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4288,606 +4032,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>S6000150200</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S6000150002</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S6000150003</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>S6000150004</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>S6000150005</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>S6000150006</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Viewnyx</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>S6000150007</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>S6000150008</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SH</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>S6000150009</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>S600015000A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>S600015000B</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>S600015000C</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>S600015000D</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>S600015000E</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>S600015000F</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>S6000150010</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>S6000150011</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>S6000150012</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>S6000150013</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EX251127-002</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>COX640AV</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>S6000150014</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -985,7 +985,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>생산중</t>
+          <t>대기</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>생산중</t>
+          <t>대기</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>생산중</t>
+          <t>대기</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>저쩌구</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>어저구</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>저쩌구</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>어저구</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>저쩌구</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>어저구</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1650,7 +1650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3437,6 +3437,50 @@
       <c r="D81" t="inlineStr">
         <is>
           <t>[Dev] 번호[EX251127-002] 및 연관 데이터 영구 삭제</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-11-28 11:26:14</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>번호[EX251104-001] 예정일(2025-11-28) 등록 및 생산시작</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-11-28 11:26:21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>생산 완료</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>번호[EX251104-001] 출고일(2025-11-28) 처리 완료.</t>
         </is>
       </c>
     </row>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>

--- a/생산요청.xlsx
+++ b/생산요청.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,6 +1634,86 @@
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RMA2511-016</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CG600IP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>화면 어두움</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>수리불가시 수리 불가판정서 동봉/ 수리 진행시 수리 내역서(가격 불포함) 및 고장품 동봉 요망</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>S60000500258</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>생산중</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>C:\Users\sue\Desktop\PDF\RMA요청서_RMA2511-016_TEST.pdf</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1650,7 +1730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3481,6 +3561,28 @@
       <c r="D83" t="inlineStr">
         <is>
           <t>번호[EX251104-001] 출고일(2025-11-28) 처리 완료.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-11-28 13:07:47</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>sue</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>일정 수립</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>번호[RMA2511-016] 예정일(2025-11-30) 등록 및 생산시작</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4076,6 +4178,36 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RMA2511-016</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CG600IP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S60000500258</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
